--- a/server_example_file.xlsx
+++ b/server_example_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\OneDrive\Worktable\pyt\Bioavailability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563750CD-9649-429D-8E1E-45B450EB09B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A3ED42-94C5-4412-8A45-5B0757B10B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F0F7D24-61C5-4357-8B71-2044C32CE1C3}"/>
   </bookViews>
@@ -274,68 +274,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00D1AB0-D59E-426C-94F1-DBBC23D41927}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="175260" y="2186940"/>
-          <a:ext cx="4815164" cy="1487805"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,6 +900,5 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/server_example_file.xlsx
+++ b/server_example_file.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\OneDrive\Worktable\pyt\Bioavailability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A3ED42-94C5-4412-8A45-5B0757B10B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F0F7D24-61C5-4357-8B71-2044C32CE1C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>0.5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Номер</t>
   </si>
@@ -69,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,24 +568,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10375213-6953-4203-9A37-F304CAEB6D1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
+      <c r="C1" s="2">
+        <v>0.5</v>
       </c>
       <c r="D1" s="2">
         <v>1</v>
@@ -618,7 +614,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -653,7 +649,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -688,7 +684,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -723,7 +719,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -758,7 +754,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -793,7 +789,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -828,7 +824,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -863,7 +859,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
